--- a/database_v1.0.xlsx
+++ b/database_v1.0.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="user表" sheetId="1" r:id="rId1"/>
     <sheet name="room表" sheetId="3" r:id="rId2"/>
     <sheet name="meeting表" sheetId="2" r:id="rId3"/>
-    <sheet name="employee表" sheetId="4" r:id="rId4"/>
-    <sheet name="employee_meeting表" sheetId="5" r:id="rId5"/>
+    <sheet name="user_meeting表" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,18 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议室名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>m_topic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,46 +243,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e_card</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int(6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参会人员id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参会人员卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参会人员姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_dept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u_status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,14 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1在职，2离职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,15 +283,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>employee表主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_meeting_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>参会人员与会议关系id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_dept</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -734,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -795,13 +746,24 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -816,7 +778,7 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -845,7 +807,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -912,10 +874,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F11"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -965,18 +927,18 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -998,18 +960,18 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
         <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
         <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -1017,44 +979,33 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
+      <c r="F9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
       <c r="E10" t="s">
         <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1065,108 +1016,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1190,12 +1043,12 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1204,7 +1057,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
@@ -1218,21 +1071,21 @@
         <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
